--- a/30 M5Stack/M5Stack.xlsx
+++ b/30 M5Stack/M5Stack.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Usuarios\Ra\programacion\GitHub\GlobalEnvironment\local.only\M5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Usuarios\Ra\programacion\GitHub\GlobalEnvironment\30 M5Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CDB916-97A4-48CF-8732-ABF3174C4AF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681E7DE-A2B9-417D-826B-A4FAC1775F2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{62F4DEAF-AF7B-4857-86B9-C2E643B1D0D9}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{62F4DEAF-AF7B-4857-86B9-C2E643B1D0D9}"/>
   </bookViews>
   <sheets>
     <sheet name="M5Stack Fire" sheetId="3" r:id="rId1"/>
+    <sheet name="M5Stack Watch" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="69">
   <si>
     <t>pin</t>
   </si>
@@ -225,6 +226,18 @@
   </si>
   <si>
     <t>ADC2_CH9</t>
+  </si>
+  <si>
+    <t>SH1107</t>
+  </si>
+  <si>
+    <t>BUZZER</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>LED</t>
   </si>
 </sst>
 </file>
@@ -667,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F30D1A-9D6D-4182-B06B-F32AE224D930}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1321,4 +1334,214 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71DB55-89BE-4E1B-A05B-FE04D1DBBE36}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="5.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>26</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="D7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/30 M5Stack/M5Stack.xlsx
+++ b/30 M5Stack/M5Stack.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Usuarios\Ra\programacion\GitHub\GlobalEnvironment\30 M5Stack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GlobalEnvironment\30 M5Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8681E7DE-A2B9-417D-826B-A4FAC1775F2C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA30C5C2-819C-4CDC-9786-4B763A7ABF37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{62F4DEAF-AF7B-4857-86B9-C2E643B1D0D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{62F4DEAF-AF7B-4857-86B9-C2E643B1D0D9}"/>
   </bookViews>
   <sheets>
     <sheet name="M5Stack Fire" sheetId="3" r:id="rId1"/>
     <sheet name="M5Stack Watch" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
   <si>
     <t>pin</t>
   </si>
@@ -96,9 +96,6 @@
     <t>RST</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>SD READER</t>
   </si>
   <si>
@@ -238,13 +235,43 @@
   </si>
   <si>
     <t>LED</t>
+  </si>
+  <si>
+    <t>HIGH=ON,LOW=OFF</t>
+  </si>
+  <si>
+    <t>SPI common</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>0x75</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>AK8963</t>
+  </si>
+  <si>
+    <t>MPU6500</t>
+  </si>
+  <si>
+    <t>BLUE</t>
+  </si>
+  <si>
+    <t>GROOVE</t>
+  </si>
+  <si>
+    <t>MPU9250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +294,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -345,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F30D1A-9D6D-4182-B06B-F32AE224D930}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -694,7 +729,7 @@
     <col min="6" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,8 +745,9 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -722,10 +758,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -736,154 +772,160 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
         <v>18</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+      <c r="D12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
         <v>19</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
         <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>22</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>37</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>38</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>39</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>27</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>17</v>
@@ -892,15 +934,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
@@ -911,13 +953,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -928,16 +970,19 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -945,16 +990,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -962,13 +1007,13 @@
         <v>26</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -976,13 +1021,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -990,13 +1035,13 @@
         <v>36</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
@@ -1004,16 +1049,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
@@ -1021,16 +1066,16 @@
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
@@ -1038,10 +1083,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
@@ -1049,10 +1094,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
@@ -1060,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1071,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1088,18 +1133,18 @@
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -1113,13 +1158,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2">
         <v>22</v>
@@ -1130,13 +1175,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2">
         <v>21</v>
@@ -1147,13 +1192,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1161,13 +1206,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1175,13 +1220,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D36" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2">
         <v>36</v>
@@ -1192,13 +1237,13 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="2">
         <v>26</v>
@@ -1209,13 +1254,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D38" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1223,13 +1268,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D39" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1237,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -1254,10 +1299,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
@@ -1271,13 +1316,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D42" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1285,18 +1330,18 @@
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D43" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>15</v>
@@ -1310,24 +1355,24 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1338,23 +1383,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71DB55-89BE-4E1B-A05B-FE04D1DBBE36}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="2"/>
+    <col min="6" max="6" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,175 +1416,335 @@
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
         <v>27</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+      <c r="E7" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>26</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="D7" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>35</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>19</v>
       </c>
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="D27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/30 M5Stack/M5Stack.xlsx
+++ b/30 M5Stack/M5Stack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GlobalEnvironment\30 M5Stack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA30C5C2-819C-4CDC-9786-4B763A7ABF37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A19E2C-BFEC-44C6-9186-18B12CC21081}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{62F4DEAF-AF7B-4857-86B9-C2E643B1D0D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{62F4DEAF-AF7B-4857-86B9-C2E643B1D0D9}"/>
   </bookViews>
   <sheets>
     <sheet name="M5Stack Fire" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="77">
   <si>
     <t>pin</t>
   </si>
@@ -120,12 +120,6 @@
     <t>0x68</t>
   </si>
   <si>
-    <t>MAG3110</t>
-  </si>
-  <si>
-    <t>0x0E</t>
-  </si>
-  <si>
     <t>MICROPHONE</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>0x75</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>AK8963</t>
   </si>
   <si>
@@ -265,6 +256,12 @@
   </si>
   <si>
     <t>MPU9250</t>
+  </si>
+  <si>
+    <t>IP5306</t>
+  </si>
+  <si>
+    <t>nivel de batería</t>
   </si>
 </sst>
 </file>
@@ -713,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F30D1A-9D6D-4182-B06B-F32AE224D930}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -758,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -772,7 +769,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -780,7 +777,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -791,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
@@ -805,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -816,7 +813,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -886,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -900,7 +897,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -914,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -942,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>17</v>
@@ -959,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>17</v>
@@ -993,7 +990,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>23</v>
@@ -1010,10 +1007,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1021,13 +1018,13 @@
         <v>35</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1035,13 +1032,13 @@
         <v>36</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
@@ -1049,16 +1046,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
@@ -1066,16 +1063,16 @@
         <v>15</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15">
@@ -1083,10 +1080,10 @@
         <v>12</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15">
@@ -1094,10 +1091,10 @@
         <v>13</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15">
@@ -1105,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1116,13 +1113,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1133,18 +1130,18 @@
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>3</v>
@@ -1161,10 +1158,10 @@
         <v>25</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2">
         <v>22</v>
@@ -1178,10 +1175,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="2">
         <v>21</v>
@@ -1195,10 +1192,10 @@
         <v>25</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1209,10 +1206,10 @@
         <v>25</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1220,13 +1217,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36" s="2">
         <v>36</v>
@@ -1237,10 +1234,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>22</v>
@@ -1254,13 +1251,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1268,13 +1265,13 @@
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1282,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
@@ -1299,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
@@ -1316,13 +1313,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1330,13 +1327,13 @@
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15">
@@ -1361,18 +1358,29 @@
         <v>26</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1385,8 +1393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF71DB55-89BE-4E1B-A05B-FE04D1DBBE36}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1429,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1443,7 +1451,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1457,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1474,7 +1482,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1485,13 +1493,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1508,7 +1516,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1519,10 +1527,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1533,10 +1541,10 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1547,13 +1555,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1564,10 +1572,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1578,10 +1586,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1592,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1617,18 +1625,18 @@
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -1642,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2">
         <v>13</v>
@@ -1659,13 +1667,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2">
         <v>25</v>
@@ -1676,13 +1684,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1690,13 +1698,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
@@ -1718,29 +1726,32 @@
         <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:5">
